--- a/covid19/data_covid19_demographics_2020-09-24.xlsx
+++ b/covid19/data_covid19_demographics_2020-09-24.xlsx
@@ -493,7 +493,7 @@
         </is>
       </c>
       <c r="N2">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -613,7 +613,7 @@
         </is>
       </c>
       <c r="N4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1573,7 +1573,7 @@
         </is>
       </c>
       <c r="N20">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21">
@@ -1693,7 +1693,7 @@
         </is>
       </c>
       <c r="N22">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="23">
